--- a/Assets/Editor/ConfigItemData.xlsx
+++ b/Assets/Editor/ConfigItemData.xlsx
@@ -19,7 +19,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,12 +44,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+需要去Config_Color配置文件配置颜色</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>ConfigItemData</t>
   </si>
@@ -63,19 +85,25 @@
     <t>b</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>Explain</t>
-  </si>
-  <si>
-    <t>isopen</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>iconName</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>isStackable</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>CArmor</t>
   </si>
   <si>
     <t>编号ID</t>
@@ -91,6 +119,12 @@
   </si>
   <si>
     <t>是否可以堆叠</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>灯光颜色</t>
   </si>
   <si>
     <t>血药</t>
@@ -143,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]General"/>
   </numFmts>
@@ -180,12 +214,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -193,24 +257,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,22 +316,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,61 +336,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,19 +394,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,133 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,36 +617,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -636,6 +640,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -647,9 +666,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,11 +707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,19 +1239,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1230,7 +1264,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1246,8 +1280,14 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" ht="18.75" spans="1:5">
+    <row r="3" ht="18.75" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1263,112 +1303,139 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" ref="E5:E8" si="0">LOWER(TRUE)</f>
         <v>true</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="7">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>true</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>LOWER(FALSE)</f>
         <v>false</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
